--- a/biology/Médecine/Hyperacousie/Hyperacousie.xlsx
+++ b/biology/Médecine/Hyperacousie/Hyperacousie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperacousie est une maladie généralement incurable qui se caractérise par un dysfonctionnement de l'audition qui occasionne une hypersensibilité de l'ouïe. Dans de rares cas, l'hyperacousie peut être sévère.
 Une personne victime d'hyperacousie souffre quand elle est exposée au bruit ou à certains sons ou certains environnements bruyants. Les souffrances décrites les plus fréquemment sont des douleurs (otalgies) et une intensification d'acouphènes préexistants et/ou de l'hyperacousie. Ces souffrances sont proportionnelles à l'intensité du bruit et à la durée d'exposition. L'exposition très progressive aux sons ne soulage pas l'hyperacousie, elle l'aggrave très progressivement l'hyperacousie, proportionnellement à l'exposition.
-L'hyperacousie n'est pas une pathologie stable, elle peut s'aggraver avec le bruit. Elle contraint donc les hyperacousiques à être prudents afin de ne pas passer à un stade plus grave de la maladie dans l'échelle de1 à 10[1].
-Les fréquences touchées et le seuil de tolérance à l'intensité acoustique varient d'une personne à l'autre sur une échelle de 1 à 10[réf. souhaitée] [2] Au niveau 1, un hyperacousique est simplement gêné par certains bruits. Au niveau 10, un patient hyperacousique a des douleurs et une augmentation de ses acouphènes avec le bruit de sa propre voix et le bruit de ses pas sur le sol ou le bruit d'un simple ventilateur par exemple. Le bruit peut non seulement déclencher mais aussi aggraver l'hyperacousie. Les patients qui sont au niveau 10 ont souvent aggravé leur hyperacousie au fil des expositions nocives au bruit.
-Selon les spécialistes des acouphènes et de l'hyperacousie, des prises en charge existent [3], mais leur efficacité est controversée[4],[5],[6]. 
-thérapie sonore : écoute de bruit blancs ou exposition progressive au bruit. [1]
+L'hyperacousie n'est pas une pathologie stable, elle peut s'aggraver avec le bruit. Elle contraint donc les hyperacousiques à être prudents afin de ne pas passer à un stade plus grave de la maladie dans l'échelle de1 à 10.
+Les fréquences touchées et le seuil de tolérance à l'intensité acoustique varient d'une personne à l'autre sur une échelle de 1 à 10[réf. souhaitée]  Au niveau 1, un hyperacousique est simplement gêné par certains bruits. Au niveau 10, un patient hyperacousique a des douleurs et une augmentation de ses acouphènes avec le bruit de sa propre voix et le bruit de ses pas sur le sol ou le bruit d'un simple ventilateur par exemple. Le bruit peut non seulement déclencher mais aussi aggraver l'hyperacousie. Les patients qui sont au niveau 10 ont souvent aggravé leur hyperacousie au fil des expositions nocives au bruit.
+Selon les spécialistes des acouphènes et de l'hyperacousie, des prises en charge existent , mais leur efficacité est controversée. 
+thérapie sonore : écoute de bruit blancs ou exposition progressive au bruit. 
 thérapie psychologique : consultation d'un psychologue.
 Sophrologie : respiration, concentration.
-Par exemple, l'écoute des bruits blancs endommagerait l'intégrité fonctionnelle et structurelle du système auditif central et du cerveau en général [7].
+Par exemple, l'écoute des bruits blancs endommagerait l'intégrité fonctionnelle et structurelle du système auditif central et du cerveau en général .
 </t>
         </is>
       </c>
@@ -519,9 +531,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme d'hyperacousie est issu des travaux de Henry B. Perlman en 1938[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme d'hyperacousie est issu des travaux de Henry B. Perlman en 1938.
 </t>
         </is>
       </c>
@@ -550,17 +564,16 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe dans la littérature scientifique plusieurs définitions de l'hyperacousie, sans que l'une en particulier ne fasse consensus[9]. Selon les auteurs, l'hyperacousie est une augmentation de la sensibilité auditive[10]. Pour plusieurs autres, l'hyperacousie est une intolérance[10],[11] ou une réponse exagérée ou anormale[12] aux sons ordinaires[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il existe dans la littérature scientifique plusieurs définitions de l'hyperacousie, sans que l'une en particulier ne fasse consensus. Selon les auteurs, l'hyperacousie est une augmentation de la sensibilité auditive. Pour plusieurs autres, l'hyperacousie est une intolérance, ou une réponse exagérée ou anormale aux sons ordinaires.
 Il faut différencier :
 l'hyperacousie qui est une diminution de la tolérance au bruit ;
-la phonophobie qui est une peur irrationnelle du bruit, terme qui a été proposé Dennis P. Phillips et Michele M. Carr en 1998[14] ;
-la misophonie qui est une réponse émotionnelle à certains sons, terme qui a été proposé par Pawel J. Jastreboff et al. en 2003[15] ;
-le recrutement qui est une hypersensibilité sonore chez les patients atteints de perte auditive neurosensorielle.
-Synonymes
-On peut retrouver dans la littérature d'autres termes ou expressions synonymes de l'hyperacousie : « odynacousie », « hyperesthésie auditive », « dysacousie », « dysesthésie auditif » ou encore « allodynie auditive »[16].
-</t>
+la phonophobie qui est une peur irrationnelle du bruit, terme qui a été proposé Dennis P. Phillips et Michele M. Carr en 1998 ;
+la misophonie qui est une réponse émotionnelle à certains sons, terme qui a été proposé par Pawel J. Jastreboff et al. en 2003 ;
+le recrutement qui est une hypersensibilité sonore chez les patients atteints de perte auditive neurosensorielle.</t>
         </is>
       </c>
     </row>
@@ -585,51 +598,58 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut retrouver dans la littérature d'autres termes ou expressions synonymes de l'hyperacousie : « odynacousie », « hyperesthésie auditive », « dysacousie », « dysesthésie auditif » ou encore « allodynie auditive ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classifications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tyler et al. de l'université de l'Iowa aux États-Unis proposent une classification de la sensibilité aux sons[17] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tyler et al. de l'université de l'Iowa aux États-Unis proposent une classification de la sensibilité aux sons :
 hyperacousie d'intensité : les sons modérés sont perçus comme très bruyants ;
 hyperacousie de gêne : certains sons même modérés sont gênants ;
 hyperacousie de peur : les patients ont peur de certains sons (modérés ou forts)  ;
 hyperacousie de douleur : la douleur accompagne la perception sonore.
-Le Dr Johnson (Oregon Tinnitus &amp; Hyperacusis Treatment Clinic) propose de distinguer[18] :
+Le Dr Johnson (Oregon Tinnitus &amp; Hyperacusis Treatment Clinic) propose de distinguer :
 hyperacousie cochléaire : la plus courante, à savoir l'intolérance aux sons ;
 hyperacousie vestibulaire : la personne peut éprouver des sentiments de vertige, des nausées ou une perte d'équilibre face au bruit.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hyperacousie se caractérise par un seuil de tolérance au bruit anormalement bas ; certains sons ou niveaux sonores, qui ne sont pas perçus comme forts ou désagréables par les personnes présentant une audition normale, sont pénibles et/ou douloureux pour l'hyperacousique. Ces sons peuvent, en outre, aggraver le niveau d'hyperacousie, créer des acouphènes ou augmenter leur intensité s'ils sont déjà présents. L'hyperacousie est le plus souvent bilatérale mais dans 10 % des cas, elle ne touche qu'une seule oreille[19][source insuffisante]. L'hyperacousie peut être associée à des acouphènes, nausées, à des vertiges, à des douleurs neurogènes permanentes, otalgie, céphalées, ou à de la fatigue permanente. Ces souffrances sont généralement soulagées par le repos dans un environnement sonore modéré.
-Certains sujets présentent par ailleurs une difficulté à échantillonner les sons : un faible bruit perturbe la perception d'un bruit pourtant plus fort. Ainsi, par exemple, il leur est difficile de suivre une conversation dans un environnement bruyant, comme un restaurant. Les personnes atteintes d'hyperacousie présentent généralement un audiogramme tout à fait normal.
-</t>
         </is>
       </c>
     </row>
@@ -654,28 +674,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Épidémiologie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peu d'études épidémiologiques à grande échelle ont été effectuées mais l'hyperacousie pourrait toucher 9 % des Suédois[20] et 15,2 % des Polonais[21],[22].
-L'hyperacousie dans ses formes plus sévères atteindrait 2 % de la population[23].
-Le patient typique atteint d'hyperacousie est relativement jeune ; l'âge moyen étant d'environ 10 ans inférieur à la population de patients souffrant d'acouphènes ou de perte auditive due au bruit[24].
-Musiciens
-L'hyperacousie est fréquente chez les musiciens professionnels. S'ils peuvent continuer à pratiquer leur métier, il s'agit d'hyperacousie légère. S'ils ne peuvent plus continuer à pratiquer leur métier, il s'agit d'hyperacousie sévère.
-L'hyperacousie devient sévère lorsqu'au fil des petits traumatismes, elle empire. L'aggravation peut être telle que le musicien doit arrêter son métier :
-une étude chez les musiciens, par l'association des orchestres anglais, a révélé que 25 % d'entre eux souffrent ou ont souffert d'hyperacousie[25] ;
-une étude a montré que 32 % des personnes touchées d'hyperacousie sont des musiciens professionnels[26] ;
-au Brésil, une étude menée auprès de musiciens d'orchestre militaire a montré que 37 % d'entre eux souffraient d'hyperacousie[27].
-Enfants
-La prévalence de l'hyperacousie dans la population des enfants (mesuré sur 7 097 individus) de 11 ans du Royaume-Uni est estimé à 3,7 %[28].
-Une étude menée au Brésil sur 506 enfants âgés de sept à douze ans a montré que 3,2 % étaient atteints d'hyperacousie[29]. Cette pathologie peut être difficile à détecter chez l’enfant. Elle peut aussi être associée à d'autres états ou symptômes comme les acouphènes, l'autisme, le syndrome de fatigue chronique, la dépression, le syndrome de Williams…
-L'étude du comportement de l'enfant permet de détecter l'hyperacousie car ils peuvent manifester des comportements de gêne aux bruits (colère, angoisse, panique...). Ils se bouchent souvent les oreilles et/ou évitent les endroits bruyants. Dans leur scolarité, ils peuvent manifester des difficultés d'attention dans une salle de classe bruyante. Pour les cas sévères, cela peut aller au refus d'aller à l'école. L'hyperacousie doit donc être détectée et l'enfant suivi par un médecin spécialiste afin d'en identifier les causes et de mettre en place un traitement adapté[30].
-Personnes atteintes d'acouphènes
-L'hyperacousie est accompagnée dans 86 % des cas d'acouphènes[31]. La présence d'acouphènes précède l'hyperacousie dans 78 % des cas[32].
-Les proportions sont différentes selon les auteurs, cela s'explique surtout par le choix des paramètres retenus pour caractériser l'hyperacousie. D'après le tableau, la prévalence moyenne de l'hyperacousie chez les acouphéniques est de 54 %. Elle est donc une pathologie qui atteint fréquemment les personnes acouphèniques.
-D'après une étude de l’American Tinnitius Association conduite auprès de 112 personnes atteintes d'acouphènes et d'hyperacousie : 53 % trouvent l'hyperacousie plus difficile à vivre que les acouphènes, 36 % les mettent sur un pied d'égalité dans la gêne occasionnée et 16 % trouvent les acouphènes moins gérables que l'hyperacousie, 6 % restent incertains[38].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperacousie se caractérise par un seuil de tolérance au bruit anormalement bas ; certains sons ou niveaux sonores, qui ne sont pas perçus comme forts ou désagréables par les personnes présentant une audition normale, sont pénibles et/ou douloureux pour l'hyperacousique. Ces sons peuvent, en outre, aggraver le niveau d'hyperacousie, créer des acouphènes ou augmenter leur intensité s'ils sont déjà présents. L'hyperacousie est le plus souvent bilatérale mais dans 10 % des cas, elle ne touche qu'une seule oreille[source insuffisante]. L'hyperacousie peut être associée à des acouphènes, nausées, à des vertiges, à des douleurs neurogènes permanentes, otalgie, céphalées, ou à de la fatigue permanente. Ces souffrances sont généralement soulagées par le repos dans un environnement sonore modéré.
+Certains sujets présentent par ailleurs une difficulté à échantillonner les sons : un faible bruit perturbe la perception d'un bruit pourtant plus fort. Ainsi, par exemple, il leur est difficile de suivre une conversation dans un environnement bruyant, comme un restaurant. Les personnes atteintes d'hyperacousie présentent généralement un audiogramme tout à fait normal.
 </t>
         </is>
       </c>
@@ -701,74 +708,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Étiologie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hyperacousie a probablement plusieurs origines[9]. Cependant, dans la plupart des cas, la cause précise demeure inconnue[9].
-L'hyperacousie est cependant fréquemment associée à d'autres troubles, comme par exemple [9].
-Elles incluent, mais ne sont pas limitées à :
-Causes liées à des traumatismes
-Traumatisme ou choc sonore
-Exposition actuelle ou ancienne à des bruits trop élevés (traumatisme sonore)[39] : par exemple, cinq ans après l’explosion de l'usine AZF à Toulouse, une étude de la Caisse Primaire d'Assurance Maladie (CPAM) et de l'Institut de Veille Sanitaire (InVS) effectuée sur un échantillon de 3 600 personnes impactées a montré que 26 % des hommes et 35 % des femmes exposés souffrent d'hyperacousie[40]
-Syndrome du choc acoustique[41] ; il fait suite à de nombreuses pathologies auditives observées avec la croissance des centres d'appels téléphoniques. Beaucoup d'opérateurs téléphoniques rapportent divers symptômes auditifs liés à leur métier. Les symptômes comprennent : otalgie, audition altérée, la plénitude de l'oreille, déséquilibre, acouphènes, hyperacousie, aversion ou même peur des bruits forts, et l'anxiété et/ou dépression. Généralement les symptômes démarrent après un incident acoustique, mais, s'ils sont de courte durée pour certains, ils peuvent devenir chroniques et invalidants pour d'autres. Les mécanismes proposés comprennent la participation du muscle tenseur du tympan, l'hyperexcitabilité des voies auditives centrales et un état d'anxiété[41]. D'après une étude en 2013, l'hyperacousie est présente dans 32 % des cas du syndrome du choc acoustique[42]. Le syndrome du choc acoustique est un traumatisme qui peut présenter des similitudes cliniques avec l’hyperacousie.
-Autres traumatismes
-Syndrome post-commotionnel[43],[44]
-Traumatisme crânien[45],[46]
-Causes liées aux systèmes nerveux centraux, au système nerveux périphérique
-Syndrome tonique du muscle tenseur du tympan (STMTT)[47]
-Dysfonctionnement du nerf facial
-Chirurgie : par exemple une compression microvasculaire du 8e nerf du tronc cérébral[48].
-Sclérose en plaques[49]
-Autisme[50] : la prévalence de l'hyperacousie est évaluée à 18 %[51]
-Syndrome d'asperger où la prévalence de l'hyperacousie est de 69 %[52].
-Paralysie faciale périphérique[53],[54]
-Migraine ; la prévalence de l'hypersensibilité aux bruits peut atteindre de 60 à 100 % durant la crise[55].
-Syndrome d'alcoolisme fœtal (SAF)[56]
-Anévrisme cérébral[57]
-Syndrome de Landau et Kleffner[58]
-Syndrome de stress post-traumatique
-Algoneurodystrophie[59]
-Démence sémantique[60]
-La maladie de Creutzfeldt-Jakob (MCJ) : dans un cas l'hyperacousie a été la première manifestation de la maladie[61]
-Hémorragies : hémorragie pontique unilatérale[62], hémorragie au niveau du corps géniculé médian[63]
-Intolérance environnementale Idiopathique aux rayonnements électromagnétiques (IEI-CEM)[64]
-Syndrome de douleurs faciales atypiques : un cas est présenté dans une étude scientifique avec amélioration de l'hyperacousie à la suite d'un traitement associant des médicaments[65]
-Épilepsie[66].
-Causes liées à la consommation de médicaments, de stupéfiants et produits dopants
-Effet lié à la consommation de stupéfiants comme la phéncyclidine[67] (PCP)
-Prise de médicaments ayant pour effet secondaire l'hyperacousie (avéré ou non)
-Syndrome de sevrage aux benzodiazépines (après arrêt ou entre deux doses)[68],[69]
-la strychnine, qui est un poison alcaloïde.
-Causes liées à des maladies génétiques
-Syndrome de Williams : la prévalence de l'hyperacousie est évaluée à 95 %[12]
-Anomalies chromosomiques touchant les chromosomes 1 et 6[70]
-Syndromes d'Ehlers-Danlos[71] : il s'agit de maladies génétiques rares, caractérisée par un manque de production de collagène. Quatre-vingt neuf pour cent des malades ayant un des syndromes d'Ehler-Danlos font de l'hyperacousie[72]. Les syndromes d'Ehler-Danlos se reconnaissent entre autres par une étirabilité de la peau un peu supérieure voire très supérieure à la normale, la présence de luxation dans la vie du patient ainsi qu'une souplesse passée ou encore présente, les muscles se rétractant avec l'âge.
-Syndrome de Lowe[73]
-Syndrome de l'X fragile[74]
-Maladie de Tay-Sachs[75].
-Causes liées à des maladies infectieuses
-Surdité brusque (si d’origine virale)
-Maladie de Lyme[76],[77]
-Syndrome de Ramsay Hunt[78]
-toxoplasmose cérébrale chez l'enfant avec maux de tête[79].
-Causes liées à des malformations osseuses
-Syndrome de déhiscence du canal semi-circulaire supérieur (SDCSS) associé à d'autres symptômes caractéristiques[80]
-dysplasie du canal semi-circulaire latéral[81]
-Syndrome algodysfonctionnel de l'appareil manducateur (SADAM)[82],[83],[84] l'American Tinnitus Association a étudié un échantillon 112 personnes atteintes d'hyperacousie, 65 ont indiqué des symptômes de trouble de l'appareil manducateur. Ils se sont exprimés de la façon suivante : 58 % ont signalé des problèmes de la mâchoire, 43 % des douleurs à la mâchoire, 51 % de la malocclusion, 52 % du bruxisme ou des grincement des dents, 5 % une sensation de déclic dans l'articulation de la mâchoire[38]
-Malformation de Chiari : l'hyperacousie est présente comme symptôme dans 1 % des cas[85].
-Causes liées à l'oreille interne et moyenne
-Fistule périlymphatique[86]
-Maladie de Menière[87]
-Otites moyennes récurrentes durant l'enfance[88]
-Autres causes
-Syndrome de Vogt-Koyanagi-Harada[89]
-Carence de vitamine B6[90] et en magnésium[réf. souhaitée]
-Myasthénie[91]
-Proportion des principales causes (et/ou prédispositions) à l'hyperacousie
-Il existe très peu d'études publiant des proportions des différentes causes induisant de l'hyperacousie. Elles sont souvent établies à l'aide de questionnaires ou lors du bilan clinique.
-Il est intéressant de constater qu'il existe une confusion entre les causes, les conséquences et les symptômes associés à l'hyperacousie dans le tableau ci-dessus.
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu d'études épidémiologiques à grande échelle ont été effectuées mais l'hyperacousie pourrait toucher 9 % des Suédois et 15,2 % des Polonais,.
+L'hyperacousie dans ses formes plus sévères atteindrait 2 % de la population.
+Le patient typique atteint d'hyperacousie est relativement jeune ; l'âge moyen étant d'environ 10 ans inférieur à la population de patients souffrant d'acouphènes ou de perte auditive due au bruit.
 </t>
         </is>
       </c>
@@ -794,13 +743,576 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musiciens</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'hyperacousie est fréquente chez les musiciens professionnels. S'ils peuvent continuer à pratiquer leur métier, il s'agit d'hyperacousie légère. S'ils ne peuvent plus continuer à pratiquer leur métier, il s'agit d'hyperacousie sévère.
+L'hyperacousie devient sévère lorsqu'au fil des petits traumatismes, elle empire. L'aggravation peut être telle que le musicien doit arrêter son métier :
+une étude chez les musiciens, par l'association des orchestres anglais, a révélé que 25 % d'entre eux souffrent ou ont souffert d'hyperacousie ;
+une étude a montré que 32 % des personnes touchées d'hyperacousie sont des musiciens professionnels ;
+au Brésil, une étude menée auprès de musiciens d'orchestre militaire a montré que 37 % d'entre eux souffraient d'hyperacousie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Enfants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence de l'hyperacousie dans la population des enfants (mesuré sur 7 097 individus) de 11 ans du Royaume-Uni est estimé à 3,7 %.
+Une étude menée au Brésil sur 506 enfants âgés de sept à douze ans a montré que 3,2 % étaient atteints d'hyperacousie. Cette pathologie peut être difficile à détecter chez l’enfant. Elle peut aussi être associée à d'autres états ou symptômes comme les acouphènes, l'autisme, le syndrome de fatigue chronique, la dépression, le syndrome de Williams…
+L'étude du comportement de l'enfant permet de détecter l'hyperacousie car ils peuvent manifester des comportements de gêne aux bruits (colère, angoisse, panique...). Ils se bouchent souvent les oreilles et/ou évitent les endroits bruyants. Dans leur scolarité, ils peuvent manifester des difficultés d'attention dans une salle de classe bruyante. Pour les cas sévères, cela peut aller au refus d'aller à l'école. L'hyperacousie doit donc être détectée et l'enfant suivi par un médecin spécialiste afin d'en identifier les causes et de mettre en place un traitement adapté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Personnes atteintes d'acouphènes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperacousie est accompagnée dans 86 % des cas d'acouphènes. La présence d'acouphènes précède l'hyperacousie dans 78 % des cas.
+Les proportions sont différentes selon les auteurs, cela s'explique surtout par le choix des paramètres retenus pour caractériser l'hyperacousie. D'après le tableau, la prévalence moyenne de l'hyperacousie chez les acouphéniques est de 54 %. Elle est donc une pathologie qui atteint fréquemment les personnes acouphèniques.
+D'après une étude de l’American Tinnitius Association conduite auprès de 112 personnes atteintes d'acouphènes et d'hyperacousie : 53 % trouvent l'hyperacousie plus difficile à vivre que les acouphènes, 36 % les mettent sur un pied d'égalité dans la gêne occasionnée et 16 % trouvent les acouphènes moins gérables que l'hyperacousie, 6 % restent incertains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperacousie a probablement plusieurs origines. Cependant, dans la plupart des cas, la cause précise demeure inconnue.
+L'hyperacousie est cependant fréquemment associée à d'autres troubles, comme par exemple .
+Elles incluent, mais ne sont pas limitées à :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Causes liées à des traumatismes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Traumatisme ou choc sonore</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Exposition actuelle ou ancienne à des bruits trop élevés (traumatisme sonore) : par exemple, cinq ans après l’explosion de l'usine AZF à Toulouse, une étude de la Caisse Primaire d'Assurance Maladie (CPAM) et de l'Institut de Veille Sanitaire (InVS) effectuée sur un échantillon de 3 600 personnes impactées a montré que 26 % des hommes et 35 % des femmes exposés souffrent d'hyperacousie
+Syndrome du choc acoustique ; il fait suite à de nombreuses pathologies auditives observées avec la croissance des centres d'appels téléphoniques. Beaucoup d'opérateurs téléphoniques rapportent divers symptômes auditifs liés à leur métier. Les symptômes comprennent : otalgie, audition altérée, la plénitude de l'oreille, déséquilibre, acouphènes, hyperacousie, aversion ou même peur des bruits forts, et l'anxiété et/ou dépression. Généralement les symptômes démarrent après un incident acoustique, mais, s'ils sont de courte durée pour certains, ils peuvent devenir chroniques et invalidants pour d'autres. Les mécanismes proposés comprennent la participation du muscle tenseur du tympan, l'hyperexcitabilité des voies auditives centrales et un état d'anxiété. D'après une étude en 2013, l'hyperacousie est présente dans 32 % des cas du syndrome du choc acoustique. Le syndrome du choc acoustique est un traumatisme qui peut présenter des similitudes cliniques avec l’hyperacousie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Causes liées à des traumatismes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Autres traumatismes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Syndrome post-commotionnel,
+Traumatisme crânien,</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Causes liées aux systèmes nerveux centraux, au système nerveux périphérique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Syndrome tonique du muscle tenseur du tympan (STMTT)
+Dysfonctionnement du nerf facial
+Chirurgie : par exemple une compression microvasculaire du 8e nerf du tronc cérébral.
+Sclérose en plaques
+Autisme : la prévalence de l'hyperacousie est évaluée à 18 %
+Syndrome d'asperger où la prévalence de l'hyperacousie est de 69 %.
+Paralysie faciale périphérique,
+Migraine ; la prévalence de l'hypersensibilité aux bruits peut atteindre de 60 à 100 % durant la crise.
+Syndrome d'alcoolisme fœtal (SAF)
+Anévrisme cérébral
+Syndrome de Landau et Kleffner
+Syndrome de stress post-traumatique
+Algoneurodystrophie
+Démence sémantique
+La maladie de Creutzfeldt-Jakob (MCJ) : dans un cas l'hyperacousie a été la première manifestation de la maladie
+Hémorragies : hémorragie pontique unilatérale, hémorragie au niveau du corps géniculé médian
+Intolérance environnementale Idiopathique aux rayonnements électromagnétiques (IEI-CEM)
+Syndrome de douleurs faciales atypiques : un cas est présenté dans une étude scientifique avec amélioration de l'hyperacousie à la suite d'un traitement associant des médicaments
+Épilepsie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Causes liées à la consommation de médicaments, de stupéfiants et produits dopants</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Effet lié à la consommation de stupéfiants comme la phéncyclidine (PCP)
+Prise de médicaments ayant pour effet secondaire l'hyperacousie (avéré ou non)
+Syndrome de sevrage aux benzodiazépines (après arrêt ou entre deux doses),
+la strychnine, qui est un poison alcaloïde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Causes liées à des maladies génétiques</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Syndrome de Williams : la prévalence de l'hyperacousie est évaluée à 95 %
+Anomalies chromosomiques touchant les chromosomes 1 et 6
+Syndromes d'Ehlers-Danlos : il s'agit de maladies génétiques rares, caractérisée par un manque de production de collagène. Quatre-vingt neuf pour cent des malades ayant un des syndromes d'Ehler-Danlos font de l'hyperacousie. Les syndromes d'Ehler-Danlos se reconnaissent entre autres par une étirabilité de la peau un peu supérieure voire très supérieure à la normale, la présence de luxation dans la vie du patient ainsi qu'une souplesse passée ou encore présente, les muscles se rétractant avec l'âge.
+Syndrome de Lowe
+Syndrome de l'X fragile
+Maladie de Tay-Sachs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Causes liées à des maladies infectieuses</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Surdité brusque (si d’origine virale)
+Maladie de Lyme,
+Syndrome de Ramsay Hunt
+toxoplasmose cérébrale chez l'enfant avec maux de tête.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Causes liées à des malformations osseuses</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Syndrome de déhiscence du canal semi-circulaire supérieur (SDCSS) associé à d'autres symptômes caractéristiques
+dysplasie du canal semi-circulaire latéral
+Syndrome algodysfonctionnel de l'appareil manducateur (SADAM) l'American Tinnitus Association a étudié un échantillon 112 personnes atteintes d'hyperacousie, 65 ont indiqué des symptômes de trouble de l'appareil manducateur. Ils se sont exprimés de la façon suivante : 58 % ont signalé des problèmes de la mâchoire, 43 % des douleurs à la mâchoire, 51 % de la malocclusion, 52 % du bruxisme ou des grincement des dents, 5 % une sensation de déclic dans l'articulation de la mâchoire
+Malformation de Chiari : l'hyperacousie est présente comme symptôme dans 1 % des cas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Causes liées à l'oreille interne et moyenne</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fistule périlymphatique
+Maladie de Menière
+Otites moyennes récurrentes durant l'enfance</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Autres causes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Syndrome de Vogt-Koyanagi-Harada
+Carence de vitamine B6 et en magnésium[réf. souhaitée]
+Myasthénie</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Proportion des principales causes (et/ou prédispositions) à l'hyperacousie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe très peu d'études publiant des proportions des différentes causes induisant de l'hyperacousie. Elles sont souvent établies à l'aide de questionnaires ou lors du bilan clinique.
+Il est intéressant de constater qu'il existe une confusion entre les causes, les conséquences et les symptômes associés à l'hyperacousie dans le tableau ci-dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hyperacousie peut être douloureuse et entraîner des otalgies aigües et chroniques. La prévalence de la douleur est de 45 % dans l'hyperacousie[93].
+L'hyperacousie peut être douloureuse et entraîner des otalgies aigües et chroniques. La prévalence de la douleur est de 45 % dans l'hyperacousie.
 Plusieurs types de douleurs sont possibles :
 Douleur aigüe dans l'oreille et sourde dans l'oreille
 Une sensation de plénitude sonore ou de « blocage »
@@ -809,282 +1321,1201 @@
 Une sensation de brûlure autour de l'oreille
 Douleur dans la joue et dans la région de l'ATM (articulation temporo-mandibulaire)
 Engourdissement / brûlure / douleur sur le côté du cou
-Maux de tête
-Troubles vestibulaires
-Trouble de l'équilibre / vertige doux
-Nausées
-Troubles auditifs
-Sensation d'audition étouffée 
-Quatre-vingt-un pour cent des personnes souffrant d'hyperacousie présentent au moins un de ces symptômes associés à ce syndrome[94].
-Pour expliquer les douleurs ou otalgies des hypothèses sont avancées. Soit la douleur proviendrait des fibres de type II voies nerveuses afférentes[95], soit elle aurait pour origine une hyper-tonicité chronique du muscle du marteau (syndrome tonique du muscle tenseur du tympan)[94],[47].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+Maux de tête</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Troubles vestibulaires</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Trouble de l'équilibre / vertige doux
+Nausées</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Troubles auditifs</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sensation d'audition étouffée 
+Quatre-vingt-un pour cent des personnes souffrant d'hyperacousie présentent au moins un de ces symptômes associés à ce syndrome.
+Pour expliquer les douleurs ou otalgies des hypothèses sont avancées. Soit la douleur proviendrait des fibres de type II voies nerveuses afférentes, soit elle aurait pour origine une hyper-tonicité chronique du muscle du marteau (syndrome tonique du muscle tenseur du tympan),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'évaluation de l'hyperacousie est généralement réalisée par des spécialistes en audition. Elle inclut généralement un questionnaire d'autoévaluation par le patient, une audiométrie tonale et la détermination du niveau d'inconfort provoqué par le bruit[96].
-Cependant, aucune procédure de diagnostic normalisée ne fait consensus pour évaluer l'hyperacousie[97].
-Recherche des niveaux d'inconfort
-Elle consiste à faire sur l'audiogramme du patient une mesure conjointe de ses seuils d'audition et de ses niveaux d'inconfort pour chacune des fréquences testées. Il s'agit des niveaux que le patient pourrait écouter sur une assez longue période de temps mais avec un inconfort.
-Formby, Payne, Yang, Wu et Parton (2017)[98] et Sherlock et Formby (2005)[99] ont démontré qu’il n’y a pas de différence significative entre la méthode de mesure des seuils d’inconfort (mesure absolue) et celle avec une échelle de catégories de jugements d’inconfort à la sonie (mesure relative) pour refléter les seuils subjectifs auxquels l'intensité des sons devient inconfortable.
-Méthodologie
-La recherche de ses niveaux d'inconforts doit s'effectuer par une augmentation très progressive de l'intensité du son (1 à 2 dB par palier) afin de ne pas entraîner des douleurs ou pire aggraver la situation du patient. Elle permet de rapidement connaître le niveau de décibels pour lequel l'individu ressent un inconfort. Le niveau d'inconfort moyen dans la population générale est fixé à 85 dB[100]. Dans le cas de l'hyperacousie, il n'est pas rare que les niveaux d'inconfort soient réduits à des niveaux faibles comme 40 dB, voire 10 dB dans certaines fréquences pour les individus les plus touchés. Il ne faut pas confondre les niveaux d'inconfort avec les seuils de douleur qui, eux aussi, sont réduits dans le cas de l'hyperacousie. Les seuils de douleur sont de l'ordre de 120 dB pour une personne normale, mais, dans le cas de l'hyperacousie, ces seuils sont bien inférieurs et, pour les plus touchés, ils sont de l'ordre des bruits de la vie quotidienne.
-Limite de la mesure
-Ces tests donnent une indication précieuse mais ils ne traduisent pas forcément la réalité car ils s'effectuent sur des fréquences précises et sur une courte durée. En effet, C'est une mesure qui doit être faite avec beaucoup de rigueur et par un professionnel spécialiste de l'hyperacousie: il peut arriver que le patient indique un seuil qu'il peut supporter quelques secondes mais absolument pas sur quelques minutes, dans ce cas les résultats peuvent donc indiquer un seuil bien supérieur à la réalité et ne pas être compris par le patient lui-même.[réf. nécessaire]
-Calcul du JHQ (Johnson Hyperacusis Dynamic Range Quotient)
-Il faut mesurer le niveau d'inconfort (en dB) pour chaque fréquence testée. Ensuite pour chaque fréquence mesurée on soustrait les niveaux des seuils d'audition préalablement mesurés. On obtient la plage dynamique de l'hyperacousie pour chaque fréquence. Pour obtenir le JHQ, toutes les plages doivent être ajoutées et divisées par le nombre de fréquences testées pour obtenir une plage dynamique moyenne. Le JHQ ne peut être mesuré que dans le cas d'une personne présentant des seuils d’audition normaux[101] ;
-Tests de psychoacoustique
-Un médecin spécialiste de l'hyperacousie pourra lors de ces tests distinguer les seuils d'inconfort liés à une hyperacousie de ceux liés à une réaction émotive aux bruits. Par exemple, ils peuvent ainsi davantage différencier une hyperacousie totalement indépendante du psychisme d'une phonophobie[102].
-Questionnaires
-Ils permettent d'évaluer le degré de la souffrance liée à l'hyperacousie[103]. Ils accompagnent et complètent les tests audiométriques.
-Une mesure précise et rigoureuse de l'hyperacousie reste une problématique importante. En 2010, une étude scientifique a montré qu'une corrélation entre les mesures audiométriques et les questionnaires d'impacts sur le confort de vie est difficile à mettre en évidence[107].
-Perspectives
-Des tests à la mesure plus objective sont encore à l'état de recherche[réf. nécessaire].
-Ainsi, une augmentation de l'amplitude des DPOAE (Distortion product otoacoustic emissions)[108] en cas d'hyperacousie a été montrée par des chercheurs polonais en 2006. Un dysfonctionnement de la fonction du système efférent olivocochléaire médian a été montré par l'étude des oto-émissions acoustiques sur 2 cas atteint d'hyperacousie en Chine[109].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+L'évaluation de l'hyperacousie est généralement réalisée par des spécialistes en audition. Elle inclut généralement un questionnaire d'autoévaluation par le patient, une audiométrie tonale et la détermination du niveau d'inconfort provoqué par le bruit.
+Cependant, aucune procédure de diagnostic normalisée ne fait consensus pour évaluer l'hyperacousie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Recherche des niveaux d'inconfort</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle consiste à faire sur l'audiogramme du patient une mesure conjointe de ses seuils d'audition et de ses niveaux d'inconfort pour chacune des fréquences testées. Il s'agit des niveaux que le patient pourrait écouter sur une assez longue période de temps mais avec un inconfort.
+Formby, Payne, Yang, Wu et Parton (2017) et Sherlock et Formby (2005) ont démontré qu’il n’y a pas de différence significative entre la méthode de mesure des seuils d’inconfort (mesure absolue) et celle avec une échelle de catégories de jugements d’inconfort à la sonie (mesure relative) pour refléter les seuils subjectifs auxquels l'intensité des sons devient inconfortable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Recherche des niveaux d'inconfort</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Méthodologie</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche de ses niveaux d'inconforts doit s'effectuer par une augmentation très progressive de l'intensité du son (1 à 2 dB par palier) afin de ne pas entraîner des douleurs ou pire aggraver la situation du patient. Elle permet de rapidement connaître le niveau de décibels pour lequel l'individu ressent un inconfort. Le niveau d'inconfort moyen dans la population générale est fixé à 85 dB. Dans le cas de l'hyperacousie, il n'est pas rare que les niveaux d'inconfort soient réduits à des niveaux faibles comme 40 dB, voire 10 dB dans certaines fréquences pour les individus les plus touchés. Il ne faut pas confondre les niveaux d'inconfort avec les seuils de douleur qui, eux aussi, sont réduits dans le cas de l'hyperacousie. Les seuils de douleur sont de l'ordre de 120 dB pour une personne normale, mais, dans le cas de l'hyperacousie, ces seuils sont bien inférieurs et, pour les plus touchés, ils sont de l'ordre des bruits de la vie quotidienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Recherche des niveaux d'inconfort</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Limite de la mesure</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces tests donnent une indication précieuse mais ils ne traduisent pas forcément la réalité car ils s'effectuent sur des fréquences précises et sur une courte durée. En effet, C'est une mesure qui doit être faite avec beaucoup de rigueur et par un professionnel spécialiste de l'hyperacousie: il peut arriver que le patient indique un seuil qu'il peut supporter quelques secondes mais absolument pas sur quelques minutes, dans ce cas les résultats peuvent donc indiquer un seuil bien supérieur à la réalité et ne pas être compris par le patient lui-même.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Calcul du JHQ (Johnson Hyperacusis Dynamic Range Quotient)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut mesurer le niveau d'inconfort (en dB) pour chaque fréquence testée. Ensuite pour chaque fréquence mesurée on soustrait les niveaux des seuils d'audition préalablement mesurés. On obtient la plage dynamique de l'hyperacousie pour chaque fréquence. Pour obtenir le JHQ, toutes les plages doivent être ajoutées et divisées par le nombre de fréquences testées pour obtenir une plage dynamique moyenne. Le JHQ ne peut être mesuré que dans le cas d'une personne présentant des seuils d’audition normaux ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tests de psychoacoustique</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un médecin spécialiste de l'hyperacousie pourra lors de ces tests distinguer les seuils d'inconfort liés à une hyperacousie de ceux liés à une réaction émotive aux bruits. Par exemple, ils peuvent ainsi davantage différencier une hyperacousie totalement indépendante du psychisme d'une phonophobie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Questionnaires</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils permettent d'évaluer le degré de la souffrance liée à l'hyperacousie. Ils accompagnent et complètent les tests audiométriques.
+Une mesure précise et rigoureuse de l'hyperacousie reste une problématique importante. En 2010, une étude scientifique a montré qu'une corrélation entre les mesures audiométriques et les questionnaires d'impacts sur le confort de vie est difficile à mettre en évidence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Perspectives</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des tests à la mesure plus objective sont encore à l'état de recherche[réf. nécessaire].
+Ainsi, une augmentation de l'amplitude des DPOAE (Distortion product otoacoustic emissions) en cas d'hyperacousie a été montrée par des chercheurs polonais en 2006. Un dysfonctionnement de la fonction du système efférent olivocochléaire médian a été montré par l'étude des oto-émissions acoustiques sur 2 cas atteint d'hyperacousie en Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs hypothèses existent sur les mécanismes impliqués dans l'hyperacousie :
-une augmentation du gain central en réponse à une diminution des entrées sensorielles auditives (pertes auditives)[110] ;
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Plusieurs hypothèses existent sur les mécanismes impliqués dans l'hyperacousie :
+une augmentation du gain central en réponse à une diminution des entrées sensorielles auditives (pertes auditives) ;
 une augmentation dans la synchronie centrale neuronale[réf. nécessaire] ;
 une dysfonction des systèmes olivocochléaires (en) médian ou latéral[réf. nécessaire] ;
-un déséquilibre entre les voies excitatrices et inhibitrices centrales (GABA, noradrénaline….)[111] ;
-une réorganisation synaptique dans les voies auditives et changeant les aiguillages du signal sonore en faveur d’autres circuits centraux (système limbique, mémoire…)[réf. nécessaire].
-Mécanismes périphériques
-Dysfonction du système de l'amplificateur cochléaire (cellules ciliées externes)
-Au niveau périphérique, il est possible d'émettre l'hypothèse que la mise en valeur anormale de signaux vibratoires à l'intérieur de la cochlée par les cellules ciliées externes (CCE) peut entraîner une stimulation excessive des cellules ciliées internes (CCI) conduisant à l'hyperacousie. En effet, dans certains cas, il est possible d'observer forte amplitude des émissions otoacoustiques Distortion produit (DPOAE) et DPOAE évoqués par stimulation acoustique de faible niveau. La présence de l'hyperacousie asymétrique pourrait soutenir une origine périphérique, alors que les mécanismes centraux doivent avoir une incidence sur les deux côtés[112].
-Dégénérescence du nerf cochléaire sans perte d’audition
-L’exposition aux bruits traumatiques peut rapidement induire une lente dégénérescence des fibres nerveuses cochléaires, et ce, même si les cellules ciliées internes sont redevenues intactes après une exposition sonore intense (Kujawa et Liberman, 2009[113]). Il semble que les fibres à seuil élevé soient les plus fragiles (Furman et al., 2013[114]). Les seuils auditifs restent normaux. Cette découverte majeure change les idées reçues : la récupération des seuils auditifs ne suffit plus à écarter une pathologie cochléaire.
-En effet, des souris de laboratoire, après une forte exposition aux bruits forts ayant induit une dégénérescence du nerf cochléaire sans perte d’audition significative, ont montré un comportement d'hyperacousie. En réponse à cette désafférentation, les auteurs ont suggéré une augmentation de l’excitabilité neuronale au niveau du système nerveux central contribuant à cette hypersensibilité auditive. Cette hyperexcitabilité semble toucher particulièrement le colliculus inférieur, un noyau important du tronc cérébral dans le traitement du son par le cerveau[115]
-Un modèle propose qu'une grande étendue de désafférentation puisse déclencher des acouphènes alors qu'une désafférentation modérée devrait plutôt être liée à de l'hyperacousie. Dans ce modèle, le stress et les mécanismes d'adaptation centraux auraient aussi un rôle prépondérant dans la genèse de ces troubles auditifs (Knipper et al., 2013[116]). Dans ce sens, une autre étude avait montrée que le stress induit une libération d’endorphines qui pourrait potentialiser les effets neurotoxiques du glutamate et favoriser l'hyperacousie[117].
-Mécanismes centraux
-L'utilisation des IRM fonctionnelles
-L'utilisation des dernières techniques d'imagerie médicale notamment les IRM fonctionnelles (IRMf) de l'encéphale permettront de mieux comprendre le dérèglement du fonctionnement du système nerveux central dans le cas de l'hyperacousie. Des recherches sont effectuées dans ce sens, en effet, Hwang et al (2009) ont comparé l'activation du cerveau de trois patients atteints d'hyperacousie avec celle de trois sujets sains sans hyperacousie, à l'aide d'imagerie par résonance magnétique fonctionnelle (IRMf). Le motif d'activation dans le cerveau en réponse à l'écoute d'un bruit blanc était nettement différent entre les participants avec et sans hyperacousie. Pour les personnes qui n'ont pas d'hyperacousie, l'activation est située principalement dans le gyrus temporal supérieur droit (comme prévu, puisque les lobes temporaux contiennent le cortex auditif primaire). Toutefois, pour les sujets atteints de l'hyperacousie, une activation a aussi été observée dans le lobe frontal et dans le lobe occipital, ce qui indique que des systèmes extérieurs aux voies auditives ont été activés par le son[118].
-Une autre étude par IRMf en 2010 montre que les sujets présentant une légère diminution de la tolérance au niveau du bruit ont montré une activation élevée dans le mésencéphale auditif, le thalamus et le cortex auditif primaire par rapport aux sujets présentant une tolérance normale[119].
+un déséquilibre entre les voies excitatrices et inhibitrices centrales (GABA, noradrénaline….) ;
+une réorganisation synaptique dans les voies auditives et changeant les aiguillages du signal sonore en faveur d’autres circuits centraux (système limbique, mémoire…)[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mécanismes périphériques</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Dysfonction du système de l'amplificateur cochléaire (cellules ciliées externes)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau périphérique, il est possible d'émettre l'hypothèse que la mise en valeur anormale de signaux vibratoires à l'intérieur de la cochlée par les cellules ciliées externes (CCE) peut entraîner une stimulation excessive des cellules ciliées internes (CCI) conduisant à l'hyperacousie. En effet, dans certains cas, il est possible d'observer forte amplitude des émissions otoacoustiques Distortion produit (DPOAE) et DPOAE évoqués par stimulation acoustique de faible niveau. La présence de l'hyperacousie asymétrique pourrait soutenir une origine périphérique, alors que les mécanismes centraux doivent avoir une incidence sur les deux côtés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mécanismes périphériques</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dégénérescence du nerf cochléaire sans perte d’audition</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’exposition aux bruits traumatiques peut rapidement induire une lente dégénérescence des fibres nerveuses cochléaires, et ce, même si les cellules ciliées internes sont redevenues intactes après une exposition sonore intense (Kujawa et Liberman, 2009). Il semble que les fibres à seuil élevé soient les plus fragiles (Furman et al., 2013). Les seuils auditifs restent normaux. Cette découverte majeure change les idées reçues : la récupération des seuils auditifs ne suffit plus à écarter une pathologie cochléaire.
+En effet, des souris de laboratoire, après une forte exposition aux bruits forts ayant induit une dégénérescence du nerf cochléaire sans perte d’audition significative, ont montré un comportement d'hyperacousie. En réponse à cette désafférentation, les auteurs ont suggéré une augmentation de l’excitabilité neuronale au niveau du système nerveux central contribuant à cette hypersensibilité auditive. Cette hyperexcitabilité semble toucher particulièrement le colliculus inférieur, un noyau important du tronc cérébral dans le traitement du son par le cerveau
+Un modèle propose qu'une grande étendue de désafférentation puisse déclencher des acouphènes alors qu'une désafférentation modérée devrait plutôt être liée à de l'hyperacousie. Dans ce modèle, le stress et les mécanismes d'adaptation centraux auraient aussi un rôle prépondérant dans la genèse de ces troubles auditifs (Knipper et al., 2013). Dans ce sens, une autre étude avait montrée que le stress induit une libération d’endorphines qui pourrait potentialiser les effets neurotoxiques du glutamate et favoriser l'hyperacousie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mécanismes centraux</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>L'utilisation des IRM fonctionnelles</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation des dernières techniques d'imagerie médicale notamment les IRM fonctionnelles (IRMf) de l'encéphale permettront de mieux comprendre le dérèglement du fonctionnement du système nerveux central dans le cas de l'hyperacousie. Des recherches sont effectuées dans ce sens, en effet, Hwang et al (2009) ont comparé l'activation du cerveau de trois patients atteints d'hyperacousie avec celle de trois sujets sains sans hyperacousie, à l'aide d'imagerie par résonance magnétique fonctionnelle (IRMf). Le motif d'activation dans le cerveau en réponse à l'écoute d'un bruit blanc était nettement différent entre les participants avec et sans hyperacousie. Pour les personnes qui n'ont pas d'hyperacousie, l'activation est située principalement dans le gyrus temporal supérieur droit (comme prévu, puisque les lobes temporaux contiennent le cortex auditif primaire). Toutefois, pour les sujets atteints de l'hyperacousie, une activation a aussi été observée dans le lobe frontal et dans le lobe occipital, ce qui indique que des systèmes extérieurs aux voies auditives ont été activés par le son.
+Une autre étude par IRMf en 2010 montre que les sujets présentant une légère diminution de la tolérance au niveau du bruit ont montré une activation élevée dans le mésencéphale auditif, le thalamus et le cortex auditif primaire par rapport aux sujets présentant une tolérance normale.
 En Corée du Sud, une étude en 2009 avec IRMf a montré une augmentation de l'activation du collicus inférieur par rapport à un groupe normal en réponse à un son de 50 dB. Les deux groupes avaient des seuils d'audition normale (&lt;20 dB HL) à toutes les fréquences testées
-Shuang Li, Veronica Choi et Thanos Tzounopoulos (2013) ont fait une découverte très importante : la réduction de l'activité des canaux Kv7.2 / 3 est essentielle pour l'induction des acouphènes et pour l'hyperactivité du noyau cochléaire qui y est associé[120]. Ainsi, la réduction de ce type de canaux peut induire une augmentation de l'hyperactivité neuronale. Il existe des cibles thérapeutiques possibles pour augmenter l'action de ces canaux comme la Rétigabine[121]. L'hypothèse que la réduction de l'activité de ces canaux existe pour l'hyperacousie est potentiellement intéressant.
-Mécanismes émotionnels
-Le système limbique contrôle la plupart des émotions au niveau central. Une connexion entre les voies auditives et ce système expliquerait donc les réactions émotionnelles aux bruits : dans le thalamus, la voie auditive classique utilise la partie ventrale en direction du cortex auditif alors que la voie auditive non classique utilise la partie dorsale en direction du cortex secondaire et d'association. Les connexions auditives à l’amygdale suivent deux routes :
+Shuang Li, Veronica Choi et Thanos Tzounopoulos (2013) ont fait une découverte très importante : la réduction de l'activité des canaux Kv7.2 / 3 est essentielle pour l'induction des acouphènes et pour l'hyperactivité du noyau cochléaire qui y est associé. Ainsi, la réduction de ce type de canaux peut induire une augmentation de l'hyperactivité neuronale. Il existe des cibles thérapeutiques possibles pour augmenter l'action de ces canaux comme la Rétigabine. L'hypothèse que la réduction de l'activité de ces canaux existe pour l'hyperacousie est potentiellement intéressant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mécanismes émotionnels</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système limbique contrôle la plupart des émotions au niveau central. Une connexion entre les voies auditives et ce système expliquerait donc les réactions émotionnelles aux bruits : dans le thalamus, la voie auditive classique utilise la partie ventrale en direction du cortex auditif alors que la voie auditive non classique utilise la partie dorsale en direction du cortex secondaire et d'association. Les connexions auditives à l’amygdale suivent deux routes :
 une « high route » du cortex à l’amygdale ;
 une « low route » plus directe par la voie non classique qui part directement du thalamus dorsal à l’amygdale.
-Cette « low route » pourrait contribuer à des réactions émotionnelles aux bruits, comme la phonophobie (Møller, 2007). Dans ce sens, une étude chez l'animal a montré une augmentation de l'activité de l’amygdale dans le cas de l'hyperacousie[122]. Mais ces hypothèses ne se confirment pas par des thérapies psychologiques.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+Cette « low route » pourrait contribuer à des réactions émotionnelles aux bruits, comme la phonophobie (Møller, 2007). Dans ce sens, une étude chez l'animal a montré une augmentation de l'activité de l’amygdale dans le cas de l'hyperacousie. Mais ces hypothèses ne se confirment pas par des thérapies psychologiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Modèle thérapeutique
-Il n'existe pas encore de traitement officiellement validé.
-Compte tenu de la complexité de l'hyperacousie, l'approche thérapeutique est de plus en plus pluridisciplinaire : le traitement de l'hyperacousie associe le plus souvent une thérapie sonore d'habituation avec des thérapies complémentaires (psychologue, sophrologue....)[123], une aide médicamenteuse peut être utile. Dans tous les cas, elles doivent être prescrites et suivies par un médecin spécialiste.
-Le traitement de l'hyperacousie peut donc relever du modèle biopsychosocial[124],[125] de Engel GL (1980) qui, dans cette pathologie, semble bien plus efficace que le modèle biomédical selon certains médecins. Les résultats des thérapies relevant du modèle biopsychosocial sont cependant médiocres. ne Ce qui permettra de dire que l'hyperacousie n'est un problème psychologique (anxiété, inquiétude, peur, etc.) mais organique (lésion des cellules cillées, tympan, nerf auditif, cortex, etc.)[non neutre].
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Modèle thérapeutique</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe pas encore de traitement officiellement validé.
+Compte tenu de la complexité de l'hyperacousie, l'approche thérapeutique est de plus en plus pluridisciplinaire : le traitement de l'hyperacousie associe le plus souvent une thérapie sonore d'habituation avec des thérapies complémentaires (psychologue, sophrologue....), une aide médicamenteuse peut être utile. Dans tous les cas, elles doivent être prescrites et suivies par un médecin spécialiste.
+Le traitement de l'hyperacousie peut donc relever du modèle biopsychosocial, de Engel GL (1980) qui, dans cette pathologie, semble bien plus efficace que le modèle biomédical selon certains médecins. Les résultats des thérapies relevant du modèle biopsychosocial sont cependant médiocres. ne Ce qui permettra de dire que l'hyperacousie n'est un problème psychologique (anxiété, inquiétude, peur, etc.) mais organique (lésion des cellules cillées, tympan, nerf auditif, cortex, etc.)[non neutre].
 La thérapie de « désensibilisation ». Dans son livre « bien vivre avec ses acouphènes » pages 96 à 99, le docteur Peignard présente une thérapie de désensibilisation qui, selon lui, lui permet de guérir 80 % des patients souffrant d'hyperacousie. C'est une thérapie qui consiste à s'exposer progressivement au bruit jusqu'à la guérison c'est-à-dire jusqu'à ne plus être anormalement sensible au bruit et pouvoir retourner en concert. Ce qui signifie que le bruit cause l'hyperacousie et la guérit également. Selon Peignard, grâce à cette "thérapie" les patients peuvent retourner en concert sans redevenir hyperacousique, ce qui signifie que leur oreille est encore plus résistante au bruit qu'avant de devenir hyperacousique. Le spectaculaire taux de 80 % de réussite annoncé par Peignard est sujet à caution car on ne peut être juge et partie.
-Thérapies sonores
-Le port de générateur de bruit blanc (TRT)
-Bien que dans les faits il n'existe aucun traitement ou thérapie qui fasse consensus et donne des résultats probants et prouvés, les thérapies sonores d'habituation sont de plus en plus utilisées depuis 1992 (date de leur invention par le Docteur Jasfreboff) . Elles sont issues d'une adaptation de la TRT (Tinnitus Retraining Therapy (en))[126] qui a été mise en place pour le traitement des acouphènes au début des années 2000[23]. Elles consistent à porter un générateur de bruit blanc, c'est-à-dire un bruit contenant toutes les fréquences audibles par l'homme à la même intensité. Plusieurs protocoles existent et peuvent être adaptés selon la sévérité de l'hyperacousie.
-Généralement, les générateurs seront portés à des niveaux de départ très faibles, parfois inférieurs au seuil d'audition. Le niveau en décibels sera ensuite augmenté progressivement jusqu'à obtenir une ré-habituation sinon complète, du moins significative de la tolérance au bruit. La durée de traitement varie généralement de 6 à 12 mois. Elle doit être menée par un médecin ou une unité spécialisée dans le traitement de l'hyperacousie. En 2008, une étude montra l'importance de la communication avec le patient sur le bénéfice du traitement, son déroulement, sa mise en place et le suivi de la thérapie sonore ; dialogue qui augmente de façon très significative la réussite du traitement[127].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Thérapies sonores</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Le port de générateur de bruit blanc (TRT)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que dans les faits il n'existe aucun traitement ou thérapie qui fasse consensus et donne des résultats probants et prouvés, les thérapies sonores d'habituation sont de plus en plus utilisées depuis 1992 (date de leur invention par le Docteur Jasfreboff) . Elles sont issues d'une adaptation de la TRT (Tinnitus Retraining Therapy (en)) qui a été mise en place pour le traitement des acouphènes au début des années 2000. Elles consistent à porter un générateur de bruit blanc, c'est-à-dire un bruit contenant toutes les fréquences audibles par l'homme à la même intensité. Plusieurs protocoles existent et peuvent être adaptés selon la sévérité de l'hyperacousie.
+Généralement, les générateurs seront portés à des niveaux de départ très faibles, parfois inférieurs au seuil d'audition. Le niveau en décibels sera ensuite augmenté progressivement jusqu'à obtenir une ré-habituation sinon complète, du moins significative de la tolérance au bruit. La durée de traitement varie généralement de 6 à 12 mois. Elle doit être menée par un médecin ou une unité spécialisée dans le traitement de l'hyperacousie. En 2008, une étude montra l'importance de la communication avec le patient sur le bénéfice du traitement, son déroulement, sa mise en place et le suivi de la thérapie sonore ; dialogue qui augmente de façon très significative la réussite du traitement.
 Différents résultats de port de générateur de bruit (blanc ou rose) sur l'hyperacousie publiés dans la littérature
-Les taux de réussite (amélioration significative) de ces traitements sont globalement de l'ordre de 80 %[135]. Il est important de préciser que ces taux de réussite sont constatés par la personne qui mène l'expérience, il n'y a aucune preuve incontestable ni contrôle rigoureux qui prouve la véracité de ces résultats spectaculaires. Cette thérapie appelée TRT (écoute de bruit blanc) existe depuis 30 ans. À l'heure actuelle , il n'existe pas de thérapie efficace contre l'hyperacousie.
+Les taux de réussite (amélioration significative) de ces traitements sont globalement de l'ordre de 80 %. Il est important de préciser que ces taux de réussite sont constatés par la personne qui mène l'expérience, il n'y a aucune preuve incontestable ni contrôle rigoureux qui prouve la véracité de ces résultats spectaculaires. Cette thérapie appelée TRT (écoute de bruit blanc) existe depuis 30 ans. À l'heure actuelle , il n'existe pas de thérapie efficace contre l'hyperacousie.
 Les limites de la TRT
-Ces résultats spectaculaires, 98 % de réussite selon Monsieur Bizaguet audioprothésiste (source : France acouphènes) font l'objet de controverses et peuvent être considérés comme de la publicité destinée à générer de l'argent pour les professionnels en séduisant un vaste marché de malades auditifs. Ces résultats sont critiqués car ils donnent de faux espoirs aux hyperacousiques et peuvent aggraver leur état en allant contre leurs douleurs, en les forçant à subir du bruit (appelé de façon trompeuse « enrichissement de l'environnement sonore »). On leur fait croire qu'ils ont 90 % de chances de guérir (« informations » appelées « counselling ») alors qu'en réalité, les patients constatent une aggravation de leurs acouphènes et de leur hyperacousie comme par exemple Adrien Farcy un homme souffrant tellement d'hyperacousie qu'il doit exercer sur un poste adapté [136]. Le professeur Hesse en Allemagne proscrit l'utilisation de bruit blanc ayant constaté qu'il aggravait les acouphènes et l'hyperacousie[137].
+Ces résultats spectaculaires, 98 % de réussite selon Monsieur Bizaguet audioprothésiste (source : France acouphènes) font l'objet de controverses et peuvent être considérés comme de la publicité destinée à générer de l'argent pour les professionnels en séduisant un vaste marché de malades auditifs. Ces résultats sont critiqués car ils donnent de faux espoirs aux hyperacousiques et peuvent aggraver leur état en allant contre leurs douleurs, en les forçant à subir du bruit (appelé de façon trompeuse « enrichissement de l'environnement sonore »). On leur fait croire qu'ils ont 90 % de chances de guérir (« informations » appelées « counselling ») alors qu'en réalité, les patients constatent une aggravation de leurs acouphènes et de leur hyperacousie comme par exemple Adrien Farcy un homme souffrant tellement d'hyperacousie qu'il doit exercer sur un poste adapté . Le professeur Hesse en Allemagne proscrit l'utilisation de bruit blanc ayant constaté qu'il aggravait les acouphènes et l'hyperacousie.
 Les arguments qui prouvent qu'ils sont faux sont les suivants : lorsque l'on consulte un ORL, il n'oriente jamais vers la TRT. La TRT existe depuis 30 ans, si elle était efficace (dans 90% des cas) , elle serait célèbre et l'hyperacousie aurait disparu. Si la TRT était efficace à 90 %, il n'y aurait pas de recherches pour une véritable thérapie réellement efficace contre l'hyperacousie.
 Dans son livre, Bien vivre avec ses acouphènes, le docteur Peignard avoue n'avoir jamais vu la TRT (écoute de bruit blanc) donner des résultats plus probants qu'une simple exposition aux bruits naturels.
-Le taux de réussite de ces traitements est de plus en plus documenté, mais le plus souvent dans des rapports de congrès ou de colloque mais peu dans les revues scientifiques. La pertinence de ces informations réside aussi dans les paramètres considérés. La plupart du temps, le paramètre-clé est l'amélioration significative du confort de vie du patient : la quantification est une moyenne des scores obtenus à partir de questionnaires sur l'impact sur la vie du patient. Elle peut également être définie par l'évolution des seuils d'inconfort lors de la prise d'audiogrammes au début, au cours et à la fin du traitement. Par exemple, dans plusieurs études des résultats de la TRT, le critère d'amélioration de l'hyperacousie retenue est : le retour à la normale d'au moins une activité de la vie courante et une baisse de la gêne de 20 % dans au moins deux autres[138] parmi une liste d'items d'un questionnaire. Nous sommes donc loin des taux de réussite faramineux annoncés.
-Certains chercheurs ont suggéré l'idée de réaliser des imageries par résonance magnétique fonctionnelle du cerveau d'un sujet présentant de l'hyperacousie, avant et après une TRT, afin de mesurer les diminutions d'activation de certaines régions ou une réorganisation des motifs d'activation. Cette technique pourrait montrer et confirmer (ou infirmer) les effets de la TRT sur la plasticité cérébrale[119]. II est évidemment certain que la TRT agit sur la plasticité cérébrale. Mais ce n'est pas parce que l'on agit sur la plasticité cérébrale que l'on guérit l'hyperacousie ou les acouphènes, ça peut être le contraire. Tout son agit sur la plasticité cérébrale qui est la réaction et l'adaptation du cerveau aux sollicitations.
-En 2018, des chercheurs californiens remettent en question les bénéfices du bruit blanc. À long terme, l’écoute des bruits blancs endommage « l'intégrité fonctionnelle et structurelle du système auditif central et du cerveau en général ». « L'exposition au bruit blanc, thérapie couramment recommandée pour les patients souffrant d'acouphènes, engage des processus plastiques (au niveau cérébral, ndlr) d'une manière qui induit des changements inadaptés dans le cerveau qui dégradent la santé neurologique et compromettent la cognition » [139],[140],[141] Les taux de réussite spectaculaires qui seraient obtenus grâce à l'écoute de bruit blanc sont donc d'autant moins crédibles.
-Autres thérapies sonores
-Méthode Auditory Integration Training[142],[143](AIT), elle est utilisée dans certains protocoles mais elle n'a pas fait l'objet d'une étude scientifique publiée sur ces effets sur l'hyperacousie. Par contre, une étude a été menée sur ses effets sur l'autisme[144].
+Le taux de réussite de ces traitements est de plus en plus documenté, mais le plus souvent dans des rapports de congrès ou de colloque mais peu dans les revues scientifiques. La pertinence de ces informations réside aussi dans les paramètres considérés. La plupart du temps, le paramètre-clé est l'amélioration significative du confort de vie du patient : la quantification est une moyenne des scores obtenus à partir de questionnaires sur l'impact sur la vie du patient. Elle peut également être définie par l'évolution des seuils d'inconfort lors de la prise d'audiogrammes au début, au cours et à la fin du traitement. Par exemple, dans plusieurs études des résultats de la TRT, le critère d'amélioration de l'hyperacousie retenue est : le retour à la normale d'au moins une activité de la vie courante et une baisse de la gêne de 20 % dans au moins deux autres parmi une liste d'items d'un questionnaire. Nous sommes donc loin des taux de réussite faramineux annoncés.
+Certains chercheurs ont suggéré l'idée de réaliser des imageries par résonance magnétique fonctionnelle du cerveau d'un sujet présentant de l'hyperacousie, avant et après une TRT, afin de mesurer les diminutions d'activation de certaines régions ou une réorganisation des motifs d'activation. Cette technique pourrait montrer et confirmer (ou infirmer) les effets de la TRT sur la plasticité cérébrale. II est évidemment certain que la TRT agit sur la plasticité cérébrale. Mais ce n'est pas parce que l'on agit sur la plasticité cérébrale que l'on guérit l'hyperacousie ou les acouphènes, ça peut être le contraire. Tout son agit sur la plasticité cérébrale qui est la réaction et l'adaptation du cerveau aux sollicitations.
+En 2018, des chercheurs californiens remettent en question les bénéfices du bruit blanc. À long terme, l’écoute des bruits blancs endommage « l'intégrité fonctionnelle et structurelle du système auditif central et du cerveau en général ». « L'exposition au bruit blanc, thérapie couramment recommandée pour les patients souffrant d'acouphènes, engage des processus plastiques (au niveau cérébral, ndlr) d'une manière qui induit des changements inadaptés dans le cerveau qui dégradent la santé neurologique et compromettent la cognition »  Les taux de réussite spectaculaires qui seraient obtenus grâce à l'écoute de bruit blanc sont donc d'autant moins crédibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Thérapies sonores</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Autres thérapies sonores</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Méthode Auditory Integration Training,(AIT), elle est utilisée dans certains protocoles mais elle n'a pas fait l'objet d'une étude scientifique publiée sur ces effets sur l'hyperacousie. Par contre, une étude a été menée sur ses effets sur l'autisme.
 La méthode Tomatis : rééducation de l'écoute utilisant du son transmis par voie aérienne et par voie osseuse afin de modifier la perception, permettant dans certains cas de diminuer l'hypersensibilité aux sons et de rendre les acouphènes plus acceptables en diminuant leur intensité ressentie.
-Le bruit rose peut aussi être utilisé en thérapie sonore, particulièrement chez les patients qui jugent le bruit blanc trop agressif. Un protocole des années 1990 suggère une écoute de 2 heures par jour de bruit rose avec un niveau d'intensité sous le seuil d'inconfort[13]. Aux États-Unis, des adaptations de ce protocole existent actuellement (pink sound protocol[145]).
-La thérapie Neuromonics : une étude clinique sur un échantillon de 35 personnes a montré une amélioration moyenne de 10,4 dB des seuils d'inconforts après 12 mois de traitement[146],[147]. Le traitement n'est pas disponible en France.
-et al. en Espagne ont publié un protocole simple et peu coûteux. Testé sur 34 patients souffrant d'hyperacousie (3 légers, 20 modérés et 11 sévères) avec retour à des seuils d'inconfort normaux pour 98 % des cas après 9 semaines de thérapie, le traitement consiste à l'écoute de bruits de la nature sur lecteur de CD (bruit de vague, de cours d'eau…) pendant des séances de 30 minutes par jour avec un protocole de croissance précis de l'intensité sonore[148].
-La thérapie de recalibration des fonctions de sonie chez des sujets hyperacousiques développée par deux chercheurs Français (A. Norena &amp; S. Chery-Croze). Ils ont testé l’hypothèse selon laquelle l'hyperacousie serait une compensation de la diminution des entrées sensorielles par une augmentation du gain central. Huit sujets présentant une hyperacousie ont été exposés pendant 15 semaines (plusieurs heures / jour) à un environnement acoustique adapté à leur audition. C'est-à-dire que seule la région de fréquences correspondant à la perte auditive était stimulée. Ils ont noté une amélioration de l’hyperacousie (évaluée par des questionnaires)[149].
-Thérapie de photobiostimulation au laser
-Des protocoles existent et montrent une amélioration de l'hyperacousie :
-Une thérapie au laser en combinaison avec une stimulation magnétique transcrânienne répétitive (SMTr) permettrait une amélioration de la douleur liée à l'hyperacousie[150]. Bien que l'étude réalisée soit controversée[151], elle a été présentée lors de la première conférence internationale sur l'hyperacousie à Londres en mars 2013 ;
-Une autre étude prospective d'un groupe de 58 patients souffrant d'hyperacousie, a été faite avec une thérapie d'irradiation laser basé sur un protocole d'énergie de photobiostimulation. Ils ont été traités deux fois par semaine pendant 6 semaines, par irradiation de dose de lumière laser de bas niveau (une puissance de rayonnement de lumière de 90 à 300 mW / cm2). L'hyperacousie a été significativement améliorée chez tous les patients. 89 % ont eu une amélioration de la capacité auditive et 78,9 % d'entre eux ont retrouvé des niveaux d'inconfort normaux[152].
-Aides auditives
-En Allemagne, le centre de traitement des acouphènes et de l'hyperacousie de Francfort/Main propose aux patients des appareils auditifs mêlant un générateur de son + protection dynamique du bruit extérieur par la technologie "digital sound separating technology". Ce qui permet à des personnes atteintes d'hyperacousie de pouvoir retrouver un confort de vie moins difficiles et pour d'autres de retrouver leur travail[153]. Des dispositifs similaires avaient été testés positivement en 2000 sur 14 patients atteints d'hyperacousie sévère aux États-Unis[154].
-Thérapies complémentaires
-Elles accompagnent de plus en plus les thérapies sonores dans une approche pluridisciplinaire du traitement ;
-les psychothérapies cognitivo-comportementales ont fait l'objet d'une étude scientifique en Suède publiée mars 2014 sur un échantillon de 60 personnes atteintes d'hyperacousie. L'étude randomisée a montré une moyenne de 7-10 dB amélioration des seuils d'inconforts avec les TCC[155],[156].
+Le bruit rose peut aussi être utilisé en thérapie sonore, particulièrement chez les patients qui jugent le bruit blanc trop agressif. Un protocole des années 1990 suggère une écoute de 2 heures par jour de bruit rose avec un niveau d'intensité sous le seuil d'inconfort. Aux États-Unis, des adaptations de ce protocole existent actuellement (pink sound protocol).
+La thérapie Neuromonics : une étude clinique sur un échantillon de 35 personnes a montré une amélioration moyenne de 10,4 dB des seuils d'inconforts après 12 mois de traitement,. Le traitement n'est pas disponible en France.
+et al. en Espagne ont publié un protocole simple et peu coûteux. Testé sur 34 patients souffrant d'hyperacousie (3 légers, 20 modérés et 11 sévères) avec retour à des seuils d'inconfort normaux pour 98 % des cas après 9 semaines de thérapie, le traitement consiste à l'écoute de bruits de la nature sur lecteur de CD (bruit de vague, de cours d'eau…) pendant des séances de 30 minutes par jour avec un protocole de croissance précis de l'intensité sonore.
+La thérapie de recalibration des fonctions de sonie chez des sujets hyperacousiques développée par deux chercheurs Français (A. Norena &amp; S. Chery-Croze). Ils ont testé l’hypothèse selon laquelle l'hyperacousie serait une compensation de la diminution des entrées sensorielles par une augmentation du gain central. Huit sujets présentant une hyperacousie ont été exposés pendant 15 semaines (plusieurs heures / jour) à un environnement acoustique adapté à leur audition. C'est-à-dire que seule la région de fréquences correspondant à la perte auditive était stimulée. Ils ont noté une amélioration de l’hyperacousie (évaluée par des questionnaires).</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Thérapie de photobiostimulation au laser</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Des protocoles existent et montrent une amélioration de l'hyperacousie :
+Une thérapie au laser en combinaison avec une stimulation magnétique transcrânienne répétitive (SMTr) permettrait une amélioration de la douleur liée à l'hyperacousie. Bien que l'étude réalisée soit controversée, elle a été présentée lors de la première conférence internationale sur l'hyperacousie à Londres en mars 2013 ;
+Une autre étude prospective d'un groupe de 58 patients souffrant d'hyperacousie, a été faite avec une thérapie d'irradiation laser basé sur un protocole d'énergie de photobiostimulation. Ils ont été traités deux fois par semaine pendant 6 semaines, par irradiation de dose de lumière laser de bas niveau (une puissance de rayonnement de lumière de 90 à 300 mW / cm2). L'hyperacousie a été significativement améliorée chez tous les patients. 89 % ont eu une amélioration de la capacité auditive et 78,9 % d'entre eux ont retrouvé des niveaux d'inconfort normaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Thérapie de photobiostimulation au laser</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Aides auditives</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Allemagne, le centre de traitement des acouphènes et de l'hyperacousie de Francfort/Main propose aux patients des appareils auditifs mêlant un générateur de son + protection dynamique du bruit extérieur par la technologie "digital sound separating technology". Ce qui permet à des personnes atteintes d'hyperacousie de pouvoir retrouver un confort de vie moins difficiles et pour d'autres de retrouver leur travail. Des dispositifs similaires avaient été testés positivement en 2000 sur 14 patients atteints d'hyperacousie sévère aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Thérapies complémentaires</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Elles accompagnent de plus en plus les thérapies sonores dans une approche pluridisciplinaire du traitement ;
+les psychothérapies cognitivo-comportementales ont fait l'objet d'une étude scientifique en Suède publiée mars 2014 sur un échantillon de 60 personnes atteintes d'hyperacousie. L'étude randomisée a montré une moyenne de 7-10 dB amélioration des seuils d'inconforts avec les TCC,.
 L'EMDR est aussi cité avec succès sur certains cas, mais il n'existe toujours pas d'étude scientifique qui a mesuré son efficacité réelle sur l'hyperacousie ;
-L'acupuncture, par exemple, la thérapie "Reflex-Correspondence Training" de Rosen MR (1995) mais elle n'a pas été prouvé scientifiquement[157],[158].
-La sophrologie, l'hypnose, l'ostéopathie sont aussi utilisés en thérapie complémentaire ;
-Traitements médicamenteux
-Aucune molécule chimique n'a démontré une réelle efficacité dans le traitement de l'hyperacousie. Cependant, certains médicaments peuvent améliorer l'état de certains individus. Les individus hyperacousiques peuvent réagir de façon très différente à un médicament, avec parfois une réduction des symptômes chez certains quand d'autres observeront plutôt une aggravation :
-antiépileptiques : certains antiépileptiques peuvent aider à combattre les douleurs et les gênes, voire faire baisser l'hyperacousie et les acouphènes. Le clonazepam[159] ne peut désormais être prescrits que par les neurologues ; la carbamazépine semble montrer une bonne efficacité dans le cas d'une hyperacousie associée à la maladie de Lyme[76] ;
-anxiolytiques : un traitement à l'alprazolam pendant 7 à 8 semaines sur 5 patients a permis une récupération complète de leur l'hyperacousie[160],[161].
-psychotropes (baclofène[159]) ;
+L'acupuncture, par exemple, la thérapie "Reflex-Correspondence Training" de Rosen MR (1995) mais elle n'a pas été prouvé scientifiquement,.
+La sophrologie, l'hypnose, l'ostéopathie sont aussi utilisés en thérapie complémentaire ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Traitements médicamenteux</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Aucune molécule chimique n'a démontré une réelle efficacité dans le traitement de l'hyperacousie. Cependant, certains médicaments peuvent améliorer l'état de certains individus. Les individus hyperacousiques peuvent réagir de façon très différente à un médicament, avec parfois une réduction des symptômes chez certains quand d'autres observeront plutôt une aggravation :
+antiépileptiques : certains antiépileptiques peuvent aider à combattre les douleurs et les gênes, voire faire baisser l'hyperacousie et les acouphènes. Le clonazepam ne peut désormais être prescrits que par les neurologues ; la carbamazépine semble montrer une bonne efficacité dans le cas d'une hyperacousie associée à la maladie de Lyme ;
+anxiolytiques : un traitement à l'alprazolam pendant 7 à 8 semaines sur 5 patients a permis une récupération complète de leur l'hyperacousie,.
+psychotropes (baclofène) ;
 neuroleptiques (sulpiride) : plusieurs hyperacousiques ont vu leurs symptômes baisser voire disparaître ;
 antidépresseurs (amitriptyline) ;
-une étude a montré une possibilité d'amélioration de l'hyperacousie avec le lithium si elle est associée à une dépression[162] ; Une autre avec l'imipramine en cas de dépression[163].
-Compléments alimentaires
-vitamine B6[90]: une étude japonaise a montré son effet bénéfique sur l'hypersensibilité aux sons, en particulier dans le cas de l'autisme[164].
+une étude a montré une possibilité d'amélioration de l'hyperacousie avec le lithium si elle est associée à une dépression ; Une autre avec l'imipramine en cas de dépression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Compléments alimentaires</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>vitamine B6: une étude japonaise a montré son effet bénéfique sur l'hypersensibilité aux sons, en particulier dans le cas de l'autisme.
 antioxydants comme l'acide alpha-lipoïque : là encore, s'il peut être efficace chez certains, il peut aggraver l'hyperacousie chez d'autres ;
-oligoéléments : magnésium, zinc...
-Autres traitements
-D'autres traitements n'ont pas montré de réelle efficacité, comme : 
+oligoéléments : magnésium, zinc...</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Autres traitements</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>D'autres traitements n'ont pas montré de réelle efficacité, comme : 
 la phytothérapie : des plantes médicinales sont parfois utilisées pour certaines de leurs propriétés notamment le ginkgo biloba, le kudzu, le millepertuis mais aucune étude n'a été menée pour connaître leur impact sur l'hyperacousie ;
 l'homéopathie cite l'utilisation de Theridion currassavicum et Ignatia amara sur l'hypersensibilité aux bruits[réf. souhaitée] ;
 réhabituation très progressive des oreilles aux bruits de la vie courante, même si cette écoute est inconfortable ou douloureuse dans les premiers temps et tout en veillant à se protéger les oreilles des bruits représentant un danger certain (concerts, feux d'artifice, klaxons, travaux, alarmes, etc.). Il faut toutefois être prudent car ces tentatives de guérison par le bruit peuvent se solder par une aggravation de l'hyperacousie.</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Recherche scientifique</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conférences internationales sur l'hyperacousie
-Les 1er et 2 mars 2013 a eu lieu à Londres la première conférence internationale sur l'hyperacousie[19]. Près d'une centaine de chercheurs du monde entier se sont réunis pour faire le point sur les causes et les traitements possibles de l'hyperacousie[17]. La deuxième conférence internationale sur l'hyperacousie a eu lieu les 9 et 10 juillet 2015 à Londres, des chercheurs du monde entier y étaient encore présents[165]. La troisième conférence internationale sur l'hyperacousie a eu lieu les 6 et 7 juillet 2017 à Guildford en Grande-Bretagne[166]
-Association de recherche sur l'hyperacousie
-Aux États-Unis, l'association Hyperacusis research milite activement pour favoriser la recherche scientifique sur des traitements et l'identification de causes de l'hyperacousie. En partenariat avec la Hearing Health Foundation[167], elle a financé à hauteur de 10 000 $ leur premier projet  d'analyse de la littérature scientifique sur l'hyperacousie[168]. L'ensemble de cette étude a été publié en deux parties en août 2014[169],[170].
-Étude sur l'animal
-Modèles animaux
-La mise au point d'un modèle animal fiable permettra de tester des traitements et de mieux comprendre la pathologie[171]. On sait déjà qu'une injection d'une forte dose de salicylate chez des rats entraîne pour 40 % d’entre eux, un comportement que l'on peut apparenter à de l'hyperacousie[172]. Des études sur l'animal ont aussi montré qu'une alimentation trop riche en oméga-3 (huile de poisson) durant la lactation peut modifier le développement des voies auditives et induire un comportement d'hyperacousie chez les progénitures[173].
-La première revue scientifique des modèles animaux incluant l'hyperacousie et les acouphènes est publiée en 2014 fait un résumé des différents modèles animaux existants[174].
-Effets de molécules chez l'animal
-Une étude sur le rat a montré qu'après une exposition sonore traumatique, l'utilisation du sildénafil réduirait une réaction de sursaut apparentée à une hyperacousie de l'animal[175]. De même chez le rat, il a été montré que le bacloféne agissait sur l'hyperactivité du colliculus inférieur dans le cas de l'hyperacousie[159]. Le baclofène réduit aussi l'hyperacousie induite par une forte dose de salicylate chez le rat[176].
-Recherches futures, pistes de recherche et perspectives
-Une analyse d'une base de données de médicaments ayant pour effet secondaire de l'hyperacousie a été réalisée. Comme ces médicaments agissent sur des récepteurs moléculaires identifiés, les chercheurs ont pu identifier ceux pouvant induire de l'hyperacousie. Il a été montré l'intervention[177] :
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Conférences internationales sur l'hyperacousie</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 1er et 2 mars 2013 a eu lieu à Londres la première conférence internationale sur l'hyperacousie. Près d'une centaine de chercheurs du monde entier se sont réunis pour faire le point sur les causes et les traitements possibles de l'hyperacousie. La deuxième conférence internationale sur l'hyperacousie a eu lieu les 9 et 10 juillet 2015 à Londres, des chercheurs du monde entier y étaient encore présents. La troisième conférence internationale sur l'hyperacousie a eu lieu les 6 et 7 juillet 2017 à Guildford en Grande-Bretagne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Recherche scientifique</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Association de recherche sur l'hyperacousie</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, l'association Hyperacusis research milite activement pour favoriser la recherche scientifique sur des traitements et l'identification de causes de l'hyperacousie. En partenariat avec la Hearing Health Foundation, elle a financé à hauteur de 10 000 $ leur premier projet  d'analyse de la littérature scientifique sur l'hyperacousie. L'ensemble de cette étude a été publié en deux parties en août 2014,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Recherche scientifique</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Étude sur l'animal</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Modèles animaux</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mise au point d'un modèle animal fiable permettra de tester des traitements et de mieux comprendre la pathologie. On sait déjà qu'une injection d'une forte dose de salicylate chez des rats entraîne pour 40 % d’entre eux, un comportement que l'on peut apparenter à de l'hyperacousie. Des études sur l'animal ont aussi montré qu'une alimentation trop riche en oméga-3 (huile de poisson) durant la lactation peut modifier le développement des voies auditives et induire un comportement d'hyperacousie chez les progénitures.
+La première revue scientifique des modèles animaux incluant l'hyperacousie et les acouphènes est publiée en 2014 fait un résumé des différents modèles animaux existants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Recherche scientifique</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Étude sur l'animal</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Effets de molécules chez l'animal</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude sur le rat a montré qu'après une exposition sonore traumatique, l'utilisation du sildénafil réduirait une réaction de sursaut apparentée à une hyperacousie de l'animal. De même chez le rat, il a été montré que le bacloféne agissait sur l'hyperactivité du colliculus inférieur dans le cas de l'hyperacousie. Le baclofène réduit aussi l'hyperacousie induite par une forte dose de salicylate chez le rat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Recherche scientifique</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Recherches futures, pistes de recherche et perspectives</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une analyse d'une base de données de médicaments ayant pour effet secondaire de l'hyperacousie a été réalisée. Comme ces médicaments agissent sur des récepteurs moléculaires identifiés, les chercheurs ont pu identifier ceux pouvant induire de l'hyperacousie. Il a été montré l'intervention :
 des récepteurs monoaminergiques (SAR, adrénergiques, 5HT, dopaminergiques) particulièrement impliqués dans la régulation des états de vigilance et de l'humeur ;
 des récepteurs cholinergiques muscariniques ;
-les transporteurs de neurotransmetteurs SLC6 : ils sont des cibles pour une large gamme de médicaments thérapeutiques utilisés dans le traitement des maladies psychiatriques, dont la dépression majeure, les troubles anxieux, le trouble d'hyperactivité avec déficit de l'attention et de l'épilepsie[178].
+les transporteurs de neurotransmetteurs SLC6 : ils sont des cibles pour une large gamme de médicaments thérapeutiques utilisés dans le traitement des maladies psychiatriques, dont la dépression majeure, les troubles anxieux, le trouble d'hyperactivité avec déficit de l'attention et de l'épilepsie.
 Ces études pharmacométriques sont très utiles pour élaborer une stratégie thérapeutique médicamenteuse.
-Des travaux montrent que l'hyperacousie pouvait résulter de pertes auditives (même très faible ou concernant des fréquences non testées dans les audiogrammes ordinaires), ce qui entraînerait en réaction une augmentation du gain central. Cette approche est controversée : des travaux ont montré que la privation de son à des individus diminuerait de 7 dB[179],[180] les seuils d'inconfort, or chez les personnes hyperacousiques cette diminution atteint fréquemment les 40  à   50 dB[17].
-Les recherches actuelles ont maintenant prouvé le renforcement de l'activité neuronale au niveau sub-cortical et cortical dans le cas de l'hyperacousie[181]. Une autre étude a montré que la suractivation du colliculus inférieur dans le cas de l'hyperacousie provient d'un sous-ensemble particulier de neurones, ceux qui sont très synchronisés. Comme les études chez l'animal ont identifié les substances (neurotransmetteurs) qui contrôlent l'activité de la plupart de ces types de neurones fortement synchronisées présents dans cette zone (le glutamate et l'acide γ-aminobutyrique), une voie de recherche est donc de montrer que ces deux substances sont sécrétées de manière déséquilibrée dans le cas de l'hyperacousie. Par exemple, d'après une autre étude, une altération précoce de la membrane tympanique chez le rat entraîne pour 80 % d'entre eux un comportement d'hyperacousie après 2 semaines. Les chercheurs ont montré qu'une fois de plus le colliculus inférieur est suractivé et qu'une injection de vigabatrine semble supprimer la crise audiogène. Or, on sait que cette molécule inhibe la catalyse du GABA[182]. Ces différentes études offrent les espoirs de futurs nouveaux traitements[183].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+Des travaux montrent que l'hyperacousie pouvait résulter de pertes auditives (même très faible ou concernant des fréquences non testées dans les audiogrammes ordinaires), ce qui entraînerait en réaction une augmentation du gain central. Cette approche est controversée : des travaux ont montré que la privation de son à des individus diminuerait de 7 dB, les seuils d'inconfort, or chez les personnes hyperacousiques cette diminution atteint fréquemment les 40  à   50 dB.
+Les recherches actuelles ont maintenant prouvé le renforcement de l'activité neuronale au niveau sub-cortical et cortical dans le cas de l'hyperacousie. Une autre étude a montré que la suractivation du colliculus inférieur dans le cas de l'hyperacousie provient d'un sous-ensemble particulier de neurones, ceux qui sont très synchronisés. Comme les études chez l'animal ont identifié les substances (neurotransmetteurs) qui contrôlent l'activité de la plupart de ces types de neurones fortement synchronisées présents dans cette zone (le glutamate et l'acide γ-aminobutyrique), une voie de recherche est donc de montrer que ces deux substances sont sécrétées de manière déséquilibrée dans le cas de l'hyperacousie. Par exemple, d'après une autre étude, une altération précoce de la membrane tympanique chez le rat entraîne pour 80 % d'entre eux un comportement d'hyperacousie après 2 semaines. Les chercheurs ont montré qu'une fois de plus le colliculus inférieur est suractivé et qu'une injection de vigabatrine semble supprimer la crise audiogène. Or, on sait que cette molécule inhibe la catalyse du GABA. Ces différentes études offrent les espoirs de futurs nouveaux traitements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Impact social</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Un rapport d'une enquête française nationale sur la détresse psychologique des personnes sourdes, malentendantes, devenues sourdes et/ou acouphéniques datant de 2011 montre l'importance des conséquences de l'hyperacousie sur la détresse psychologique[184][précision nécessaire]. L'INPES a publié des rapports soulevant le problème de l'hyperacousie sur la souffrance psychique[185].
-Une étude suédoise de 2013 montre sur un échantillon de 62 patients hyperacousiques que 47 % avaient un trouble anxieux. Une autre étude allemande menée en 2008 a montré une association de troubles psychiatriques (dépression, phobie sociale, anxiété…) dans 60 % des cas d'hyperacousie sévère[186].
-En Suède, une étude à l'université d'Uppsala sur 62 patients atteints d'hyperacousie a montré que 89 % évitent les endroits bruyants et 82 % portent des bouchons d'oreilles dans leur quotidien[187].
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Un rapport d'une enquête française nationale sur la détresse psychologique des personnes sourdes, malentendantes, devenues sourdes et/ou acouphéniques datant de 2011 montre l'importance des conséquences de l'hyperacousie sur la détresse psychologique[précision nécessaire]. L'INPES a publié des rapports soulevant le problème de l'hyperacousie sur la souffrance psychique.
+Une étude suédoise de 2013 montre sur un échantillon de 62 patients hyperacousiques que 47 % avaient un trouble anxieux. Une autre étude allemande menée en 2008 a montré une association de troubles psychiatriques (dépression, phobie sociale, anxiété…) dans 60 % des cas d'hyperacousie sévère.
+En Suède, une étude à l'université d'Uppsala sur 62 patients atteints d'hyperacousie a montré que 89 % évitent les endroits bruyants et 82 % portent des bouchons d'oreilles dans leur quotidien.
 L'hyperacousie peut être invalidante, selon le niveau de gravité. Elle peut rendre difficile ou empêcher les activités bruyantes ou les gestes de la vie quotidienne. Comme pour tout handicap, elle peut être source d'exclusion et de fragilité face aux abus.
 Mal connue, la maladie peut entraîner de la part de l'entourage incompréhension et négligence grave pouvant aggraver le niveau d'hyperacousie.
 L’hyperacousie est une maladie qui a pour caractéristique d’être constamment douloureuse (notamment à travers des acouphènes aigus), cette douleur lancinante d'intensité variable a des conséquences importantes sur le moral du patient et sur sa vie sociale. Cette pathologie est mal comprise du corps médical et de la société en général : ce handicap étant invisible, il est souvent minimisé.
@@ -1092,74 +2523,147 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>Reconnaissance de l'hyperacousie</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>La méconnaissance de la maladie et l'absence de tests mesurant objectivement l'hyperacousie amènent souvent des praticiens à attribuer celle-ci à des problèmes psychologiques, tels que dépression, anxiété, phobie[réf. nécessaire]. La perturbation du schéma auditif n'étant pas encore expliquée, les médecins se proposent fréquemment de résoudre le problème par autosuggestion ou renvoient leurs patients vers la psychothérapie[188], l'écoute de bruit blanc et la stimulation sonore appelées "thérapies sonores"[189].
-Comme toutes les personnes atteintes d'affections chroniques ou de handicap, la personne hyperacousique peut être plus sujette à la dépression que le reste de la population[réf. souhaitée][184] de par les contraintes qu'elle doit endurer en raison des douleurs que lui causent le bruit : évitement de certains bruits, réduction des contacts sociaux, bannissement contraint de certains loisirs qui sont pourtant sa passion (musique, concerts, walkman, danse, discothèques, écoute). La dépression et l'anxiété peuvent être des conséquences de l'hyperacousie.
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>La méconnaissance de la maladie et l'absence de tests mesurant objectivement l'hyperacousie amènent souvent des praticiens à attribuer celle-ci à des problèmes psychologiques, tels que dépression, anxiété, phobie[réf. nécessaire]. La perturbation du schéma auditif n'étant pas encore expliquée, les médecins se proposent fréquemment de résoudre le problème par autosuggestion ou renvoient leurs patients vers la psychothérapie, l'écoute de bruit blanc et la stimulation sonore appelées "thérapies sonores".
+Comme toutes les personnes atteintes d'affections chroniques ou de handicap, la personne hyperacousique peut être plus sujette à la dépression que le reste de la population[réf. souhaitée] de par les contraintes qu'elle doit endurer en raison des douleurs que lui causent le bruit : évitement de certains bruits, réduction des contacts sociaux, bannissement contraint de certains loisirs qui sont pourtant sa passion (musique, concerts, walkman, danse, discothèques, écoute). La dépression et l'anxiété peuvent être des conséquences de l'hyperacousie.
 Les thérapies psychologiques sont efficaces pour traiter les problèmes psychologiques (déprime, dépression) qui peuvent être occasionnés par l'hyperacousie chez certains sujets mais elles ne permettent pas de traiter l'hyperacousie. Pour autant, les thérapies comme la TCC (thérapie cognitive comportementale) ne sont pas à exclure car elles apportent un réconfort au malade et l'aident à mieux accepter les contraintes de ce handicap : douleurs face à certains bruits, impossibilité de s'exposer à des niveaux sonores extrêmes : les concerts, les discothèques, machines-outils, récréations d'écoles, aéroports, etc.
-[réf. nécessaire]
-Prise en compte gouvernementale de l'hyperacousie
-Entre 1997 et 2002, seules deux questions au gouvernement ont été formulées en France sur la problématique de l'hyperacousie. Entre 2002 et 2007, 51 questions concernant l'hyperacousie ont été posées[190]. Une question du 11 novembre 2007 au gouvernement français de la 13e législature sur la prise en charge de l'hyperacousie a fait l'objet d'une réponse publiée au journal officiel le 4 novembre 2008[191]. Il y est indiqué : 
-Facteurs potentiellement aggravants
-l'exposition prolongée à des bruits et à des sons au-dessus des seuils d'inconfort
-D'après une étude de Lurquin P. (2015), on observe une croissance de l’hypersensibilité au son après exposition à un bruit fort pour 62,5 % des sujets atteints d'hyperacousie. La durée de l’augmentation des symptômes en présence de bruit fort est de quelques heures pour 30 % des sujets, quelques jours pour 27 % et plusieurs mois pour 9 %[192].
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Reconnaissance de l'hyperacousie</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Prise en compte gouvernementale de l'hyperacousie</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1997 et 2002, seules deux questions au gouvernement ont été formulées en France sur la problématique de l'hyperacousie. Entre 2002 et 2007, 51 questions concernant l'hyperacousie ont été posées. Une question du 11 novembre 2007 au gouvernement français de la 13e législature sur la prise en charge de l'hyperacousie a fait l'objet d'une réponse publiée au journal officiel le 4 novembre 2008. Il y est indiqué : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Reconnaissance de l'hyperacousie</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Facteurs potentiellement aggravants</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>l'exposition prolongée à des bruits et à des sons au-dessus des seuils d'inconfort
+D'après une étude de Lurquin P. (2015), on observe une croissance de l’hypersensibilité au son après exposition à un bruit fort pour 62,5 % des sujets atteints d'hyperacousie. La durée de l’augmentation des symptômes en présence de bruit fort est de quelques heures pour 30 % des sujets, quelques jours pour 27 % et plusieurs mois pour 9 %.
 Une personne souffrant d'hyperacousie devra être attentive à se protéger des sons qui lui causent des douleurs, son hyperacousie pouvant éventuellement s'aggraver. L'aggravation est proportionnelle à l'intensité du son et à la durée d'exposition.Un coup de klaxon, une sirène d'ambulance, des cris d'enfants, les voitures qui freinent, les travaux routiers, les tondeuses à gazon, le bruit d'un torrent, le piaillement continuel d'oiseaux, un sèche-cheveux, un micro-ondes, le bruit d'un supermarché, etc. Autant de bruits qui non seulement causent des douleurs (parfois intolérables) chez les personnes souffrant d'hyperacousie mais qui, à long terme, aggravent leur hyperacousie. Comme pour les acouphènes, il existe différents niveaux de gravité. Les personnes les moins atteintes sont uniquement affectées par le bruit d'intensité relativement forte qui leur occasionne des douleurs. Chez les personnes les plus atteintes, le bruit de leur propre voix ou de leurs propres pas sur le sol leur occasionne des douleurs. Les personnes souffrant d'hyperacousie doivent par conséquent faire preuve de prudence, un seul coup de klaxon pouvant leur occasionner des douleurs importantes, voire une aggravation plus ou moins durable de leur hyperacousie.
-les stimulants tels que la caféine, le chocolat et la nicotine[193].
+les stimulants tels que la caféine, le chocolat et la nicotine.
 la fatigue, l'anxiété, le stress...
 les médicaments ototoxiques
-certains antidépresseurs comme la paroxetine, la sertraline[194]...</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+certains antidépresseurs comme la paroxetine, la sertraline...</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>L'hyperacousie est une pathologie lourde qui est souvent la conséquence d'une exposition aux bruits de fortes intensités. La meilleure prévention reste le port de bouchons d'oreille, efficace lors de toute activité dans un environnement bruyant : concerts, travaux publics ou domestiques bruyants, moto... Certaines personnes peuvent s'exposer à des environnements sonores extrêmes (concerts, discothèques, aéroports, chantiers, industries...) sans avoir besoin de se protéger. D'autres personnes peuvent devenir acouphéniques ou hyperacousiques avec un seul concert. Donc c'est à chaque personne de voir si elle a besoin de se protéger ou non, si elle doit se priver de concerts ou non. Chaque humain est différent. Les personnes qui développent des acouphènes ou de l'hyperacousie ont un système auditif plus sensible que les autres.
  Il est inutile d'imposer le port de bouchons à des gens qui n'en ont pas besoin. Tout comme il ne faut pas encourager à aller à des concerts des gens qui sont fragiles des oreilles (acouphènes, hyperacousie).
@@ -1167,47 +2671,49 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Hyperacousie</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hyperacousie</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperacousie</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>Personnes célèbres atteintes d'hyperacousie</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Personnes réelles :
-Beethoven (surdité, acouphènes, hyperacousie) [195]
-L'auteure-compositrice-interprète Angèle [196](hyperacousie modérée de niveau 1)
-L'auteure-compositrice-interprète belgo-canadienne Lara Fabian[197] (provisoirement)
-Le compositeur belge Henri Pousseur[198]
+Beethoven (surdité, acouphènes, hyperacousie) 
+L'auteure-compositrice-interprète Angèle (hyperacousie modérée de niveau 1)
+L'auteure-compositrice-interprète belgo-canadienne Lara Fabian (provisoirement)
+Le compositeur belge Henri Pousseur
 Le guitariste de Jazz-Fusion Al Di Meola[réf. souhaitée]
-Le chanteur Jason Di Emilion du groupe Azusa Plane[199]. L’hyperacousie serait la cause de son suicide.
-Le musicien Wan[200]
-L’écrivaine anglaise Lina Stratmann[201]
-Le musicien Chris Singleton[202],[203]
-Le DJ Adaro[204][réf. à confirmer]
-L'ancien batteur et professeur de musique à la Old Town School of Folk Music de Chicago (États-Unis) Joel Styzens[205]
-Stephin Merritt, musicien américain né en 1966, connu principalement pour avoir créé le groupe The Magnetic Fields. Son hyperacousie de l'oreille gauche a influé notablement sur ses choix instrumentaux dans la composition de ses chansons[206].
-Le joueur d'échecs Bobby Fischer souffrait probablement d'hyperacousie selon le Dr Anthony Saidy. Il a multiplié les scandales durant les parties qu'il a disputées avec Spassky sous prétexte que le bruit des caméras entravait sa concentration[207].
-Le pilote automobile belge Wolfgang Reip [208]
+Le chanteur Jason Di Emilion du groupe Azusa Plane. L’hyperacousie serait la cause de son suicide.
+Le musicien Wan
+L’écrivaine anglaise Lina Stratmann
+Le musicien Chris Singleton,
+Le DJ Adaro[réf. à confirmer]
+L'ancien batteur et professeur de musique à la Old Town School of Folk Music de Chicago (États-Unis) Joel Styzens
+Stephin Merritt, musicien américain né en 1966, connu principalement pour avoir créé le groupe The Magnetic Fields. Son hyperacousie de l'oreille gauche a influé notablement sur ses choix instrumentaux dans la composition de ses chansons.
+Le joueur d'échecs Bobby Fischer souffrait probablement d'hyperacousie selon le Dr Anthony Saidy. Il a multiplié les scandales durant les parties qu'il a disputées avec Spassky sous prétexte que le bruit des caméras entravait sa concentration.
+Le pilote automobile belge Wolfgang Reip 
 Personnages de fiction : 
 Le personnage principal du film Baby driver (Edgar Wright - 2017), interprété par Ansel Elgort, souffre d'acouphènes et d'hyperacousie
 Dans la série The Big Bang Theory (2007-2019) le personnage de Sheldon Cooper (interprété par Jim Parsons) souffre d'hyperacousie</t>
